--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -36,7 +36,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy-m-d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -48,6 +48,11 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -55,11 +60,11 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="13"/>
+      <color indexed="9"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,8 +83,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -91,11 +102,170 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -106,87 +276,57 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -198,44 +338,80 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -255,11 +431,12 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ffb8b8b8"/>
     </indexedColors>
   </colors>
@@ -278,10 +455,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0910186"/>
-          <c:y val="0.143491"/>
-          <c:w val="0.847812"/>
-          <c:h val="0.790117"/>
+          <c:x val="0.102452"/>
+          <c:y val="0.145307"/>
+          <c:w val="0.891749"/>
+          <c:h val="0.787618"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -291,15 +468,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'工作表 1'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>账户资金</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>账户资金</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -347,7 +516,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -357,29 +526,32 @@
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'工作表 1'!$A$3:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2021-10-20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021-10-27</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2021-10-20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021-10-27</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021-11-11</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'工作表 1'!$B$3,'工作表 1'!$B$4</c:f>
+              <c:f>"10000","9880.77",,"9812.54"</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>10000.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9880.770000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9812.540000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,7 +611,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350" cap="flat">
+            <a:ln w="12700" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="B8B8B8"/>
               </a:solidFill>
@@ -494,10 +666,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0714827"/>
+          <c:x val="0.0819039"/>
           <c:y val="0"/>
-          <c:w val="0.826921"/>
-          <c:h val="0.0720241"/>
+          <c:w val="0.869776"/>
+          <c:h val="0.0726192"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -549,10 +721,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102452"/>
-          <c:y val="0.143491"/>
-          <c:w val="0.891749"/>
-          <c:h val="0.790117"/>
+          <c:x val="0.0712624"/>
+          <c:y val="0.145307"/>
+          <c:w val="0.922738"/>
+          <c:h val="0.787618"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -562,15 +734,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'工作表 1'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>账户资金的2%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>账户资金的2%</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -618,7 +782,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -628,89 +792,32 @@
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'工作表 1'!$A$3:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2021-10-20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021-10-27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2021-10-20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021-10-27</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021-11-11</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'工作表 1'!$C$3:$C$23</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>200.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>197.620000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>200.000000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>197.620000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>196.250000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -767,7 +874,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350" cap="flat">
+            <a:ln w="12700" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="B8B8B8"/>
               </a:solidFill>
@@ -804,8 +911,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.75"/>
-        <c:minorUnit val="0.375"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -822,10 +929,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0819038"/>
+          <c:x val="0.0500002"/>
           <c:y val="0"/>
-          <c:w val="0.869775"/>
-          <c:h val="0.0720241"/>
+          <c:w val="0.9"/>
+          <c:h val="0.0726193"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -878,9 +985,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0712624"/>
-          <c:y val="0.143491"/>
+          <c:y val="0.145307"/>
           <c:w val="0.922738"/>
-          <c:h val="0.790117"/>
+          <c:h val="0.787618"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -890,15 +997,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'工作表 1'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>账户资金的6%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>账户资金的6%</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -946,7 +1045,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -956,89 +1055,32 @@
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'工作表 1'!$A$3:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2021-10-20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021-10-27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2021-10-20</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021-10-27</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021-11-11</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'工作表 1'!$D$3:$D$23</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>600.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>592.850000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>600.000000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>592.850000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>588.750000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -1095,7 +1137,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350" cap="flat">
+            <a:ln w="12700" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="B8B8B8"/>
               </a:solidFill>
@@ -1132,8 +1174,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1153,7 +1195,7 @@
           <c:x val="0.05"/>
           <c:y val="0"/>
           <c:w val="0.9"/>
-          <c:h val="0.0720241"/>
+          <c:h val="0.0726193"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1198,15 +1240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>493776</xdr:colOff>
+      <xdr:colOff>458469</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1044321</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42799</xdr:rowOff>
+      <xdr:colOff>736598</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>250174</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1214,8 +1256,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5472176" y="0"/>
-        <a:ext cx="5528946" cy="3781045"/>
+        <a:off x="5436869" y="0"/>
+        <a:ext cx="5256530" cy="3733785"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1228,15 +1270,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>458470</xdr:colOff>
+      <xdr:colOff>634998</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>168529</xdr:rowOff>
+      <xdr:rowOff>168528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:colOff>736597</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>145288</xdr:rowOff>
+      <xdr:rowOff>98026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1244,8 +1286,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5436870" y="4416044"/>
-        <a:ext cx="5256531" cy="3781045"/>
+        <a:off x="5613398" y="4416043"/>
+        <a:ext cx="5080000" cy="3733784"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1258,15 +1300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>634999</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>22098</xdr:rowOff>
+      <xdr:rowOff>22096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12192</xdr:rowOff>
+      <xdr:colOff>736602</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>217660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1274,8 +1316,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5613400" y="8832088"/>
-        <a:ext cx="5080001" cy="3781045"/>
+        <a:off x="5613399" y="8832086"/>
+        <a:ext cx="5080004" cy="3733785"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1299,10 +1341,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1479,11 +1521,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1492,7 +1537,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1507,19 +1552,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1767,12 +1812,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2063,7 +2108,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2341,181 +2386,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>44489</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="11">
         <v>10000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>200</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <v>600</v>
       </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="13">
         <v>44496</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="14">
         <v>9880.77</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="15">
         <v>197.62</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="15">
         <v>592.85</v>
       </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="13">
+        <v>44511</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9812.540000000001</v>
+      </c>
+      <c r="C5" s="15">
+        <v>196.25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>588.75</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" ht="19.9" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" ht="19.9" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" ht="19.9" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" ht="19.9" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" ht="19.9" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" ht="19.9" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" ht="19.9" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" ht="19.9" customHeight="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" ht="19.9" customHeight="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" ht="19.9" customHeight="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" ht="19.9" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" ht="19.9" customHeight="1">
+      <c r="A35" s="21"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" ht="19.9" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" ht="19.9" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" ht="19.9" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" ht="19.9" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" ht="19.9" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" ht="19.9" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" ht="19.9" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" ht="19.9" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" ht="19.9" customHeight="1">
+      <c r="A44" s="21"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" ht="19.9" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" ht="19.9" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" ht="19.9" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" ht="19.9" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" ht="19.9" customHeight="1">
+      <c r="A49" s="21"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" ht="19.9" customHeight="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="19940" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>表格 1</t>
   </si>
@@ -32,39 +35,186 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy-m-d"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="9"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,23 +224,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -123,26 +459,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
@@ -155,31 +471,6 @@
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -323,6 +614,44 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -332,135 +661,506 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffb8b8b8"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00B8B8B8"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.102452"/>
-          <c:y val="0.145307"/>
-          <c:w val="0.891749"/>
-          <c:h val="0.787618"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -468,142 +1168,356 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>账户资金</c:v>
+            <c:strRef>
+              <c:f>'工作表 1'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>表格 1 账户资金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFFFF"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>2021-10-20</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2021-10-27</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021-11-11</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'工作表 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-m\-d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                  <c:v>44510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>"10000","9880.77",,"9812.54"</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'工作表 1'!$B$3:$B$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'工作表 1'!$B$3:$B$6</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10000.000000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9880.770000</c:v>
+                  <c:v>19880.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9812.540000</c:v>
+                  <c:v>19812.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18808.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="873835239"/>
+        <c:axId val="894240950"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$C$1:$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>表格 1 账户资金的2%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$C$3:$C$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$C$3:$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>298.21155</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>297.1881</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>282.12045</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$D$1:$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>表格 1 账户资金的6%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$D$3:$D$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$D$3:$D$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1192.8462</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1188.7524</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1128.4818</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="873835239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica Neue"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="894240950"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="894240950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,13 +1525,16 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="12700" cap="flat">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B8B8B8"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -625,72 +1542,76 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica Neue"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="873835239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="50"/>
-        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0819039"/>
-          <c:y val="0"/>
-          <c:w val="0.869776"/>
-          <c:h val="0.0726192"/>
+          <c:x val="0.368946857222145"/>
+          <c:y val="0.89430704619692"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -698,175 +1619,445 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0712624"/>
-          <c:y val="0.145307"/>
-          <c:w val="0.922738"/>
-          <c:h val="0.787618"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>账户资金的2%</c:v>
+            <c:strRef>
+              <c:f>'工作表 1'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>表格 1 账户资金的2%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFFFF"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>2021-10-20</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2021-10-27</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021-11-11</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'工作表 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-m\-d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                  <c:v>44510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>200.000000</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>197.620000</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>196.250000</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'工作表 1'!$C$3:$C$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'工作表 1'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.21155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297.1881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282.12045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="873835239"/>
+        <c:axId val="894240950"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$B$1:$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>表格 1 账户资金</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$B$3:$B$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$B$3:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19880.77</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>19812.54</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>18808.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$D$1:$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>表格 1 账户资金的6%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$D$3:$D$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$D$3:$D$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1192.8462</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1188.7524</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1128.4818</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="873835239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica Neue"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="894240950"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="894240950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,13 +2065,551 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="12700" cap="flat">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B8B8B8"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873835239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.368946857222145"/>
+          <c:y val="0.89430704619692"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'工作表 1'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>表格 1 账户资金的6%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'工作表 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-m\-d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                  <c:v>44510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'工作表 1'!$D$3:$D$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'工作表 1'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1192.8462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1188.7524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1128.4818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="873835239"/>
+        <c:axId val="894240950"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$B$1:$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>表格 1 账户资金</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$B$3:$B$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$B$3:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19880.77</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>19812.54</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>18808.03</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$C$1:$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>表格 1 账户资金的2%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'工作表 1'!$C$3:$C$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'工作表 1'!$C$3:$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>298.21155</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>297.1881</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>282.12045</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="873835239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894240950"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="894240950"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -888,72 +2617,76 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica Neue"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="873835239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0500002"/>
-          <c:y val="0"/>
-          <c:w val="0.9"/>
-          <c:h val="0.0726193"/>
+          <c:x val="0.368946857222145"/>
+          <c:y val="0.89430704619692"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -961,307 +2694,1733 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0712624"/>
-          <c:y val="0.145307"/>
-          <c:w val="0.922738"/>
-          <c:h val="0.787618"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>账户资金的6%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFFFF"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>2021-10-20</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2021-10-27</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021-11-11</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:ptCount val="3"/>
-              <c:pt idx="0">
-                <c:v>600.000000</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>592.850000</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>588.750000</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="12700" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica Neue"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2094734553"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2094734553"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="12700" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="B8B8B8"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="12700" cap="flat">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica Neue"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2094734552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="2.5"/>
-      </c:valAx>
-      <c:spPr>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.05"/>
-          <c:y val="0"/>
-          <c:w val="0.9"/>
-          <c:h val="0.0726193"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-</c:chartSpace>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>458469</xdr:colOff>
+      <xdr:colOff>59690</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>736598</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>250174</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1143635</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5436869" y="0"/>
-        <a:ext cx="5256530" cy="3733785"/>
+        <a:off x="4710430" y="381000"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1270,28 +4429,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>634998</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>168528</xdr:rowOff>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>736597</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>98026</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1156970</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvPr id="9" name="图表 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5613398" y="4416043"/>
-        <a:ext cx="5080000" cy="3733784"/>
+        <a:off x="4723765" y="3345815"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1300,28 +4459,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>22096</xdr:rowOff>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>736602</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>217660</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1159510</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4"/>
+        <xdr:cNvPr id="10" name="图表 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5613399" y="8832086"/>
-        <a:ext cx="5080004" cy="3733785"/>
+        <a:off x="4726305" y="6291580"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1331,7 +4490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1530,8 +4689,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -1551,8 +4708,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1564,7 +4720,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1581,8 +4737,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1607,8 +4762,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1633,8 +4787,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,8 +4812,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,8 +4837,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,8 +4862,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,8 +4887,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,8 +4912,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1789,8 +4937,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1803,9 +4950,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1819,8 +4972,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1840,8 +4991,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1866,8 +5016,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1892,8 +5041,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1918,8 +5066,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1944,8 +5091,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1970,8 +5116,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1996,8 +5141,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2022,8 +5166,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2048,8 +5191,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2074,8 +5216,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2088,9 +5229,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2101,8 +5248,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -2122,8 +5267,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2135,7 +5279,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2152,8 +5296,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2178,8 +5321,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2204,8 +5346,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,8 +5371,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,8 +5396,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2282,8 +5421,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2308,8 +5446,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2334,8 +5471,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2360,8 +5496,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2374,9 +5509,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -2385,610 +5526,654 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="22"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" ht="22.55" customHeight="1" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="23"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="10">
+    <row r="3" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A3" s="5">
         <v>44489</v>
       </c>
-      <c r="B3" s="11">
-        <v>10000</v>
+      <c r="B3" s="6">
+        <v>20000</v>
       </c>
-      <c r="C3" s="12">
-        <v>200</v>
+      <c r="C3" s="7">
+        <f>(VLOOKUP(A3,$A$2:$D100,2,FALSE)*0.015)</f>
+        <v>300</v>
       </c>
-      <c r="D3" s="12">
-        <v>600</v>
+      <c r="D3" s="7">
+        <f>(VLOOKUP(A3,$A$2:$D$100,2,FALSE)*0.06)</f>
+        <v>1200</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="23"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="13">
+    <row r="4" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A4" s="8">
         <v>44496</v>
       </c>
-      <c r="B4" s="14">
-        <v>9880.77</v>
+      <c r="B4" s="9">
+        <v>19880.77</v>
       </c>
-      <c r="C4" s="15">
-        <v>197.62</v>
+      <c r="C4" s="7">
+        <f>(VLOOKUP(A4,$A$2:$D101,2,FALSE)*0.015)</f>
+        <v>298.21155</v>
       </c>
-      <c r="D4" s="15">
-        <v>592.85</v>
+      <c r="D4" s="7">
+        <f>(VLOOKUP(A4,$A$2:$D$100,2,FALSE)*0.06)</f>
+        <v>1192.8462</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="23"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="13">
-        <v>44511</v>
+    <row r="5" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A5" s="5">
+        <v>44503</v>
       </c>
-      <c r="B5" s="14">
-        <v>9812.540000000001</v>
+      <c r="B5" s="9">
+        <v>19812.54</v>
       </c>
-      <c r="C5" s="15">
-        <v>196.25</v>
+      <c r="C5" s="7">
+        <f>(VLOOKUP(A5,$A$2:$D102,2,FALSE)*0.015)</f>
+        <v>297.1881</v>
       </c>
-      <c r="D5" s="15">
-        <v>588.75</v>
+      <c r="D5" s="7">
+        <f>(VLOOKUP(A5,$A$2:$D$100,2,FALSE)*0.06)</f>
+        <v>1188.7524</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="23"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+    <row r="6" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A6" s="8">
+        <v>44510</v>
+      </c>
+      <c r="B6" s="10">
+        <v>18808.03</v>
+      </c>
+      <c r="C6" s="7">
+        <f>(VLOOKUP(A6,$A$2:$D103,2,FALSE)*0.015)</f>
+        <v>282.12045</v>
+      </c>
+      <c r="D6" s="7">
+        <f>(VLOOKUP(A6,$A$2:$D$100,2,FALSE)*0.06)</f>
+        <v>1128.4818</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="23"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+    <row r="7" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A7" s="5">
+        <v>44517</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="23"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+    <row r="8" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A8" s="8">
+        <v>44524</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="23"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+    <row r="9" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="23"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+    <row r="10" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="23"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+    <row r="11" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="23"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+    <row r="12" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="23"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+    <row r="14" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="23"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+    <row r="15" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="23"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+    <row r="16" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="23"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+    <row r="17" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="23"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+    <row r="18" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="23"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+    <row r="19" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="23"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+    <row r="20" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="23"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+    <row r="21" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="23"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+    <row r="22" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="23"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+    <row r="23" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="23"/>
     </row>
-    <row r="24" ht="19.9" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="23"/>
     </row>
-    <row r="25" ht="19.9" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="23"/>
     </row>
-    <row r="26" ht="19.9" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="23"/>
     </row>
-    <row r="27" ht="19.9" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="23"/>
     </row>
-    <row r="28" ht="19.9" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="23"/>
     </row>
-    <row r="29" ht="19.9" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="23"/>
     </row>
-    <row r="30" ht="19.9" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="23"/>
     </row>
-    <row r="31" ht="19.9" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="23"/>
     </row>
-    <row r="32" ht="19.9" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="23"/>
     </row>
-    <row r="33" ht="19.9" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="23"/>
     </row>
-    <row r="34" ht="19.9" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="23"/>
     </row>
-    <row r="35" ht="19.9" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="23"/>
     </row>
-    <row r="36" ht="19.9" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="23"/>
     </row>
-    <row r="37" ht="19.9" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="23"/>
     </row>
-    <row r="38" ht="19.9" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="23"/>
     </row>
-    <row r="39" ht="19.9" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="23"/>
     </row>
-    <row r="40" ht="19.9" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="23"/>
     </row>
-    <row r="41" ht="19.9" customHeight="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="23"/>
     </row>
-    <row r="42" ht="19.9" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="23"/>
     </row>
-    <row r="43" ht="19.9" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="23"/>
     </row>
-    <row r="44" ht="19.9" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
+    <row r="44" customHeight="1" spans="1:9">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="23"/>
     </row>
-    <row r="45" ht="19.9" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="23"/>
     </row>
-    <row r="46" ht="19.9" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="23"/>
     </row>
-    <row r="47" ht="19.9" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="23"/>
     </row>
-    <row r="48" ht="19.9" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="23"/>
     </row>
-    <row r="49" ht="19.9" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
+    <row r="49" customHeight="1" spans="1:9">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="23"/>
     </row>
-    <row r="50" ht="19.9" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'工作表 1'!A3</xm:f>
+              <xm:sqref>F2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -2590,6 +2590,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="894240950"/>
@@ -5530,7 +5532,7 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -1244,7 +1244,7 @@
                   <c:v>19812.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18808.03</c:v>
+                  <c:v>19808.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +1356,7 @@
                         <c:v>297.1881</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>282.12045</c:v>
+                        <c:v>297.12045</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1455,7 +1455,7 @@
                         <c:v>1188.7524</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1128.4818</c:v>
+                        <c:v>1188.4818</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1783,7 +1783,7 @@
                   <c:v>297.1881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282.12045</c:v>
+                  <c:v>297.12045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,7 +1895,7 @@
                         <c:v>19812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18808.03</c:v>
+                        <c:v>19808.03</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1994,7 +1994,7 @@
                         <c:v>1188.7524</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1128.4818</c:v>
+                        <c:v>1188.4818</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2321,7 +2321,7 @@
                   <c:v>1188.7524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1128.4818</c:v>
+                  <c:v>1188.4818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,7 +2433,7 @@
                         <c:v>19812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18808.03</c:v>
+                        <c:v>19808.03</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2532,7 +2532,7 @@
                         <c:v>297.1881</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>282.12045</c:v>
+                        <c:v>297.12045</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5532,8 +5532,8 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5641,15 +5641,15 @@
         <v>44510</v>
       </c>
       <c r="B6" s="10">
-        <v>18808.03</v>
+        <v>19808.03</v>
       </c>
       <c r="C6" s="7">
         <f>(VLOOKUP(A6,$A$2:$D103,2,FALSE)*0.015)</f>
-        <v>282.12045</v>
+        <v>297.12045</v>
       </c>
       <c r="D6" s="7">
         <f>(VLOOKUP(A6,$A$2:$D$100,2,FALSE)*0.06)</f>
-        <v>1128.4818</v>
+        <v>1188.4818</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="17"/>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -1473,9 +1473,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1490,7 +1491,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1569,7 +1570,7 @@
         </c:txPr>
         <c:crossAx val="873835239"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2109,7 +2110,7 @@
         </c:txPr>
         <c:crossAx val="873835239"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4401,13 +4402,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>59690</xdr:colOff>
+      <xdr:colOff>58420</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1143635</xdr:colOff>
+      <xdr:colOff>1142365</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
@@ -4417,7 +4418,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4710430" y="381000"/>
+        <a:off x="4709160" y="381000"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5532,7 +5533,7 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -25,7 +25,19 @@
     <t>账户资金</t>
   </si>
   <si>
-    <t>账户资金的2%</t>
+    <r>
+      <t>账户资金的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5%</t>
+    </r>
   </si>
   <si>
     <t>账户资金的6%</t>
@@ -42,7 +54,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -60,6 +72,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -212,6 +231,13 @@
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -764,152 +790,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -923,6 +949,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1281,7 +1310,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金的2%</c:v>
+                        <c:v>表格 1 账户资金的1.5%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1713,7 +1742,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>表格 1 账户资金的2%</c:v>
+                  <c:v>表格 1 账户资金的1.5%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2458,7 +2487,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金的2%</c:v>
+                        <c:v>表格 1 账户资金的1.5%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4402,13 +4431,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>58420</xdr:colOff>
+      <xdr:colOff>57785</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1142365</xdr:colOff>
+      <xdr:colOff>1141730</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
@@ -4418,7 +4447,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4709160" y="381000"/>
+        <a:off x="4708525" y="381000"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5534,7 +5563,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5549,11 +5578,11 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" ht="22.55" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
@@ -5562,589 +5591,589 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="23"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>44489</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>20000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <f>(VLOOKUP(A3,$A$2:$D100,2,FALSE)*0.015)</f>
         <v>300</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <f>(VLOOKUP(A3,$A$2:$D$100,2,FALSE)*0.06)</f>
         <v>1200</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>44496</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>19880.77</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <f>(VLOOKUP(A4,$A$2:$D101,2,FALSE)*0.015)</f>
         <v>298.21155</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <f>(VLOOKUP(A4,$A$2:$D$100,2,FALSE)*0.06)</f>
         <v>1192.8462</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44503</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>19812.54</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <f>(VLOOKUP(A5,$A$2:$D102,2,FALSE)*0.015)</f>
         <v>297.1881</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <f>(VLOOKUP(A5,$A$2:$D$100,2,FALSE)*0.06)</f>
         <v>1188.7524</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>44510</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>19808.03</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f>(VLOOKUP(A6,$A$2:$D103,2,FALSE)*0.015)</f>
         <v>297.12045</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <f>(VLOOKUP(A6,$A$2:$D$100,2,FALSE)*0.06)</f>
         <v>1188.4818</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44517</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>44524</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="23"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="23"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="23"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="23"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="23"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="23"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="23"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="23"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="23"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="23"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="23"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="23"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="23"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="23"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="23"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="23"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="23"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="23"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="23"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="23"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="23"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="23"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="23"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="23"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="23"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="23"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="23"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="23"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="23"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="23"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="23"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="24"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -7,17 +7,14 @@
     <workbookView windowWidth="19940" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="账户管理" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>日期</t>
   </si>
@@ -54,15 +51,9 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -249,12 +240,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,36 +443,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,31 +606,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -790,148 +737,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,75 +890,75 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,11 +1145,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'工作表 1'!$B$1:$B$2</c:f>
+              <c:f>账户管理!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>表格 1 账户资金</c:v>
+                  <c:v>账户资金</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1227,11 +1174,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'工作表 1'!$A$3:$A$6</c:f>
+              <c:f>账户管理!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1255,11 +1202,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'工作表 1'!$B$3:$B$8</c15:sqref>
+                    <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'工作表 1'!$B$3:$B$6</c:f>
+              <c:f>账户管理!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1303,14 +1250,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$C$1:$C$2</c15:sqref>
+                          <c15:sqref>账户管理!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金的1.5%</c:v>
+                        <c:v>账户资金的1.5%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1335,10 +1282,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1365,10 +1312,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$C$3:$C$8</c15:sqref>
+                          <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$C$3:$C$6</c15:sqref>
+                          <c15:sqref>账户管理!$C$2:$C$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1402,14 +1349,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$D$1:$D$2</c15:sqref>
+                          <c15:sqref>账户管理!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金的6%</c:v>
+                        <c:v>账户资金的6%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1434,10 +1381,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1464,10 +1411,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$D$3:$D$8</c15:sqref>
+                          <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$D$3:$D$6</c15:sqref>
+                          <c15:sqref>账户管理!$D$2:$D$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1738,11 +1685,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'工作表 1'!$C$1:$C$2</c:f>
+              <c:f>账户管理!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>表格 1 账户资金的1.5%</c:v>
+                  <c:v>账户资金的1.5%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1767,11 +1714,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'工作表 1'!$A$3:$A$6</c:f>
+              <c:f>账户管理!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1795,11 +1742,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'工作表 1'!$C$3:$C$8</c15:sqref>
+                    <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'工作表 1'!$C$3:$C$6</c:f>
+              <c:f>账户管理!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1843,14 +1790,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$B$1:$B$2</c15:sqref>
+                          <c15:sqref>账户管理!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金</c:v>
+                        <c:v>账户资金</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1875,10 +1822,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1905,10 +1852,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$B$3:$B$8</c15:sqref>
+                          <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$B$3:$B$6</c15:sqref>
+                          <c15:sqref>账户管理!$B$2:$B$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1942,14 +1889,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$D$1:$D$2</c15:sqref>
+                          <c15:sqref>账户管理!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金的6%</c:v>
+                        <c:v>账户资金的6%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1974,10 +1921,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2004,10 +1951,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$D$3:$D$8</c15:sqref>
+                          <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$D$3:$D$6</c15:sqref>
+                          <c15:sqref>账户管理!$D$2:$D$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2276,11 +2223,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'工作表 1'!$D$1:$D$2</c:f>
+              <c:f>账户管理!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>表格 1 账户资金的6%</c:v>
+                  <c:v>账户资金的6%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2305,11 +2252,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'工作表 1'!$A$3:$A$6</c:f>
+              <c:f>账户管理!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2333,11 +2280,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'工作表 1'!$D$3:$D$8</c15:sqref>
+                    <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'工作表 1'!$D$3:$D$6</c:f>
+              <c:f>账户管理!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2381,14 +2328,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$B$1:$B$2</c15:sqref>
+                          <c15:sqref>账户管理!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金</c:v>
+                        <c:v>账户资金</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2413,10 +2360,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2443,10 +2390,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$B$3:$B$8</c15:sqref>
+                          <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$B$3:$B$6</c15:sqref>
+                          <c15:sqref>账户管理!$B$2:$B$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2480,14 +2427,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$C$1:$C$2</c15:sqref>
+                          <c15:sqref>账户管理!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>表格 1 账户资金的1.5%</c:v>
+                        <c:v>账户资金的1.5%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2512,10 +2459,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2542,10 +2489,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'工作表 1'!$C$3:$C$8</c15:sqref>
+                          <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'工作表 1'!$C$3:$C$6</c15:sqref>
+                          <c15:sqref>账户管理!$C$2:$C$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4438,7 +4385,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1141730</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -4447,8 +4394,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4708525" y="381000"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="4708525" y="286385"/>
+        <a:ext cx="4572000" cy="2444115"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4462,13 +4409,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1156970</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -4477,7 +4424,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4723765" y="3345815"/>
+        <a:off x="4723765" y="2952115"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4492,13 +4439,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>75565</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1159510</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>224790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -4507,7 +4454,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4726305" y="6291580"/>
+        <a:off x="4726305" y="5897880"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5560,10 +5507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5571,614 +5518,598 @@
     <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:9">
+    <row r="1" ht="22.55" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" ht="22.55" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
+      <c r="E1" s="23"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A2" s="4">
+        <v>44489</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="6">
+        <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.015)</f>
+        <v>300</v>
+      </c>
+      <c r="D2" s="6">
+        <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>1200</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A3" s="6">
-        <v>44489</v>
+    <row r="3" ht="20.05" customHeight="1" spans="1:9">
+      <c r="A3" s="7">
+        <v>44496</v>
       </c>
-      <c r="B3" s="7">
-        <v>20000</v>
+      <c r="B3" s="8">
+        <v>19880.77</v>
       </c>
-      <c r="C3" s="8">
-        <f>(VLOOKUP(A3,$A$2:$D100,2,FALSE)*0.015)</f>
-        <v>300</v>
+      <c r="C3" s="6">
+        <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.015)</f>
+        <v>298.21155</v>
       </c>
-      <c r="D3" s="8">
-        <f>(VLOOKUP(A3,$A$2:$D$100,2,FALSE)*0.06)</f>
-        <v>1200</v>
+      <c r="D3" s="6">
+        <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>1192.8462</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="24"/>
     </row>
     <row r="4" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A4" s="9">
-        <v>44496</v>
+      <c r="A4" s="4">
+        <v>44503</v>
       </c>
-      <c r="B4" s="10">
-        <v>19880.77</v>
+      <c r="B4" s="8">
+        <v>19812.54</v>
       </c>
-      <c r="C4" s="8">
-        <f>(VLOOKUP(A4,$A$2:$D101,2,FALSE)*0.015)</f>
-        <v>298.21155</v>
+      <c r="C4" s="6">
+        <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.015)</f>
+        <v>297.1881</v>
       </c>
-      <c r="D4" s="8">
-        <f>(VLOOKUP(A4,$A$2:$D$100,2,FALSE)*0.06)</f>
-        <v>1192.8462</v>
+      <c r="D4" s="6">
+        <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>1188.7524</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A5" s="6">
-        <v>44503</v>
+      <c r="A5" s="7">
+        <v>44510</v>
       </c>
-      <c r="B5" s="10">
-        <v>19812.54</v>
+      <c r="B5" s="9">
+        <v>19808.03</v>
       </c>
-      <c r="C5" s="8">
-        <f>(VLOOKUP(A5,$A$2:$D102,2,FALSE)*0.015)</f>
-        <v>297.1881</v>
+      <c r="C5" s="6">
+        <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.015)</f>
+        <v>297.12045</v>
       </c>
-      <c r="D5" s="8">
-        <f>(VLOOKUP(A5,$A$2:$D$100,2,FALSE)*0.06)</f>
-        <v>1188.7524</v>
+      <c r="D5" s="6">
+        <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>1188.4818</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A6" s="9">
-        <v>44510</v>
+      <c r="A6" s="4">
+        <v>44517</v>
       </c>
-      <c r="B6" s="11">
-        <v>19808.03</v>
-      </c>
-      <c r="C6" s="8">
-        <f>(VLOOKUP(A6,$A$2:$D103,2,FALSE)*0.015)</f>
-        <v>297.12045</v>
-      </c>
-      <c r="D6" s="8">
-        <f>(VLOOKUP(A6,$A$2:$D$100,2,FALSE)*0.06)</f>
-        <v>1188.4818</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A7" s="6">
-        <v>44517</v>
+      <c r="A7" s="7">
+        <v>44524</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A8" s="9">
-        <v>44524</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="24"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="24"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="24"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="24"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="24"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="24"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="24"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A19" s="13"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="24"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A22" s="13"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="24"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="24"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="24"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="24"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="24"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="24"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="24"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="24"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="24"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="24"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="24"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="24"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="24"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="25"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -6199,8 +6130,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'工作表 1'!A3</xm:f>
-              <xm:sqref>F2</xm:sqref>
+              <xm:f>账户管理!A2</xm:f>
+              <xm:sqref>F1</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -22,22 +22,10 @@
     <t>账户资金</t>
   </si>
   <si>
-    <r>
-      <t>账户资金的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.5%</t>
-    </r>
+    <t>每笔交易风险额度</t>
   </si>
   <si>
-    <t>账户资金的6%</t>
+    <t>总交易风险额度</t>
   </si>
 </sst>
 </file>
@@ -51,7 +39,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -222,13 +210,6 @@
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1105,7 +1086,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.412168724850839"/>
+          <c:y val="0.0314218381775334"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1257,7 +1245,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>账户资金的1.5%</c:v>
+                        <c:v>每笔交易风险额度</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1356,7 +1344,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>账户资金的6%</c:v>
+                        <c:v>总交易风险额度</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1689,7 +1677,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>账户资金的1.5%</c:v>
+                  <c:v>每笔交易风险额度</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1896,7 +1884,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>账户资金的6%</c:v>
+                        <c:v>总交易风险额度</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2227,7 +2215,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>账户资金的6%</c:v>
+                  <c:v>总交易风险额度</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2434,7 +2422,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>账户资金的1.5%</c:v>
+                        <c:v>每笔交易风险额度</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4380,13 +4368,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>57785</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1141730</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149860</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4394,7 +4382,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4708525" y="286385"/>
+        <a:off x="4708525" y="19685"/>
         <a:ext cx="4572000" cy="2444115"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4408,15 +4396,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1156970</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:colOff>1156335</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4424,7 +4412,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4723765" y="2952115"/>
+        <a:off x="4723130" y="2532380"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4438,15 +4426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>75565</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1159510</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>224790</xdr:rowOff>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4454,7 +4442,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4726305" y="5897880"/>
+        <a:off x="4725670" y="5361940"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5510,7 +5498,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5528,7 +5516,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="23"/>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -2611,7 +2611,7 @@
         </c:txPr>
         <c:crossAx val="873835239"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4426,15 +4426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74930</xdr:colOff>
+      <xdr:colOff>74295</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
+      <xdr:rowOff>234315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:colOff>1158240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:rowOff>193675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4442,7 +4442,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4725670" y="5361940"/>
+        <a:off x="4725035" y="5361305"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5497,7 +5497,7 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -5497,8 +5497,8 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="13020"/>
+    <workbookView windowWidth="27240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="账户管理" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -82,31 +82,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -120,19 +105,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,14 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
@@ -160,7 +128,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +152,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,17 +175,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,13 +251,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,103 +341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +625,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -642,33 +651,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,12 +690,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -718,139 +718,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5498,7 +5498,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5610,9 +5610,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A6" s="4">
-        <v>44517</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -5623,9 +5621,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A7" s="7">
-        <v>44524</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13020"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="账户管理" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -62,7 +62,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,16 +75,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +93,29 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,8 +129,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,22 +161,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,23 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,26 +189,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,7 +239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +269,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,61 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,43 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,44 +423,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -538,17 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -619,17 +608,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +640,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,21 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -704,166 +702,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -897,18 +886,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -918,15 +901,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -937,9 +920,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5498,7 +5478,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5519,11 +5499,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="24"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:9">
       <c r="A2" s="4">
@@ -5540,11 +5520,11 @@
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1200</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="24"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" ht="20.05" customHeight="1" spans="1:9">
       <c r="A3" s="7">
@@ -5561,11 +5541,11 @@
         <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1192.8462</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="24"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" ht="20.05" customHeight="1" spans="1:9">
       <c r="A4" s="4">
@@ -5582,11 +5562,11 @@
         <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1188.7524</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="24"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:9">
       <c r="A5" s="7">
@@ -5603,495 +5583,563 @@
         <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1188.4818</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="24"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7">
+        <v>44517</v>
+      </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="24"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4">
+        <v>44524</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="24"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="24"/>
+      <c r="A8" s="7">
+        <v>44531</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="24"/>
+      <c r="A9" s="7">
+        <v>44538</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="24"/>
+      <c r="A10" s="7">
+        <v>44545</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="24"/>
+      <c r="A11" s="4">
+        <v>44552</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="24"/>
+      <c r="A12" s="7">
+        <v>44559</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="7">
+        <v>44566</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="24"/>
+      <c r="A14" s="7">
+        <v>44573</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="24"/>
+      <c r="A15" s="4">
+        <v>44580</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="24"/>
+      <c r="A16" s="7">
+        <v>44587</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="24"/>
+      <c r="A17" s="7">
+        <v>44594</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="24"/>
+      <c r="A18" s="7">
+        <v>44601</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="24"/>
+      <c r="A19" s="4">
+        <v>44608</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
+      <c r="A20" s="7">
+        <v>44615</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="24"/>
+      <c r="A21" s="7">
+        <v>44622</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="24"/>
+      <c r="A22" s="7">
+        <v>44629</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="24"/>
+      <c r="A23" s="4">
+        <v>44636</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="24"/>
+      <c r="A24" s="7">
+        <v>44643</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="24"/>
+      <c r="A25" s="7">
+        <v>44650</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="24"/>
+      <c r="A26" s="7">
+        <v>44657</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="24"/>
+      <c r="A27" s="4">
+        <v>44664</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="24"/>
+      <c r="A28" s="7">
+        <v>44671</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="24"/>
+      <c r="A29" s="7">
+        <v>44678</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="24"/>
+      <c r="A30" s="7">
+        <v>44685</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="24"/>
+      <c r="A31" s="4">
+        <v>44692</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="24"/>
+      <c r="A32" s="7">
+        <v>44699</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="24"/>
+      <c r="A33" s="7">
+        <v>44706</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="24"/>
+      <c r="A34" s="7">
+        <v>44713</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="24"/>
+      <c r="A35" s="4">
+        <v>44720</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="24"/>
+      <c r="A36" s="7">
+        <v>44727</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="24"/>
+      <c r="A37" s="7">
+        <v>44734</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="24"/>
+      <c r="A38" s="7">
+        <v>44741</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="24"/>
+      <c r="A39" s="4">
+        <v>44748</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="24"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="24"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="24"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="24"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="24"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="24"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="24"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="24"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="24"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="25"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>

--- a/我的创作/炒股/资金曲线.xlsx
+++ b/我的创作/炒股/资金曲线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="19940" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="账户管理" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -62,24 +63,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,8 +84,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -100,7 +94,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +111,29 @@
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,30 +161,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,15 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,22 +208,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +240,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,19 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +318,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,67 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,31 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +610,39 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -644,20 +678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,187 +703,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -865,37 +866,25 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,10 +1135,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>账户管理!$A$2:$A$5</c:f>
+              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -1161,6 +1150,9 @@
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                   <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                  <c:v>44524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,10 +1166,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>账户管理!$B$2:$B$5</c:f>
+              <c:f>(账户管理!$B$2:$B$5,账户管理!$B$7)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20000</c:v>
                 </c:pt>
@@ -1189,6 +1181,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19808.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19831.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,13 +1248,13 @@
                           <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1271,6 +1266,9 @@
                       </c:pt>
                       <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                         <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1283,13 +1281,13 @@
                           <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$C$2:$C$5</c15:sqref>
+                          <c15:sqref>(账户管理!$C$2:$C$5,账户管理!$C$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>300</c:v>
                       </c:pt>
@@ -1301,6 +1299,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>297.12045</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>297.4653</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1352,13 +1353,13 @@
                           <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1370,6 +1371,9 @@
                       </c:pt>
                       <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                         <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1382,13 +1386,13 @@
                           <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$D$2:$D$5</c15:sqref>
+                          <c15:sqref>(账户管理!$D$2:$D$5,账户管理!$D$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1200</c:v>
                       </c:pt>
@@ -1400,6 +1404,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>1188.4818</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1189.8612</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1482,7 +1489,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1686,10 +1693,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>账户管理!$A$2:$A$5</c:f>
+              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -1701,6 +1708,9 @@
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                   <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                  <c:v>44524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,10 +1724,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>账户管理!$C$2:$C$5</c:f>
+              <c:f>(账户管理!$C$2:$C$5,账户管理!$C$7)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -1729,6 +1739,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>297.12045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297.4653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,13 +1806,13 @@
                           <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1811,6 +1824,9 @@
                       </c:pt>
                       <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                         <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1823,13 +1839,13 @@
                           <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$B$2:$B$5</c15:sqref>
+                          <c15:sqref>(账户管理!$B$2:$B$5,账户管理!$B$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>20000</c:v>
                       </c:pt>
@@ -1841,6 +1857,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>19808.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>19831.02</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1892,13 +1911,13 @@
                           <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -1910,6 +1929,9 @@
                       </c:pt>
                       <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                         <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1922,13 +1944,13 @@
                           <c15:sqref>账户管理!$D$2:$D$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$D$2:$D$5</c15:sqref>
+                          <c15:sqref>(账户管理!$D$2:$D$5,账户管理!$D$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1200</c:v>
                       </c:pt>
@@ -1940,6 +1962,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>1188.4818</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1189.8612</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2022,7 +2047,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2224,10 +2249,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>账户管理!$A$2:$A$5</c:f>
+              <c:f>(账户管理!$A$2:$A$5,账户管理!$A$7)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2239,6 +2264,9 @@
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                   <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                  <c:v>44524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,10 +2280,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>账户管理!$D$2:$D$5</c:f>
+              <c:f>(账户管理!$D$2:$D$5,账户管理!$D$7)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1200</c:v>
                 </c:pt>
@@ -2267,6 +2295,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1188.4818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1189.8612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,13 +2362,13 @@
                           <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2349,6 +2380,9 @@
                       </c:pt>
                       <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                         <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2361,13 +2395,13 @@
                           <c15:sqref>账户管理!$B$2:$B$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$B$2:$B$5</c15:sqref>
+                          <c15:sqref>(账户管理!$B$2:$B$5,账户管理!$B$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>20000</c:v>
                       </c:pt>
@@ -2379,6 +2413,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>19808.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>19831.02</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2430,13 +2467,13 @@
                           <c15:sqref>账户管理!$A$2:$A$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>(账户管理!$A$2:$A$5,账户管理!$A$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2448,6 +2485,9 @@
                       </c:pt>
                       <c:pt idx="3" c:formatCode="yyyy\-m\-d">
                         <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2460,13 +2500,13 @@
                           <c15:sqref>账户管理!$C$2:$C$7</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>账户管理!$C$2:$C$5</c15:sqref>
+                          <c15:sqref>(账户管理!$C$2:$C$5,账户管理!$C$7)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>300</c:v>
                       </c:pt>
@@ -2478,6 +2518,9 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>297.12045</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>297.4653</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2559,7 +2602,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4346,13 +4389,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57785</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1141730</xdr:colOff>
+      <xdr:colOff>1141095</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
@@ -4362,7 +4405,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4708525" y="19685"/>
+        <a:off x="4707890" y="19685"/>
         <a:ext cx="4572000" cy="2444115"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5478,7 +5521,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -5499,11 +5542,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="21"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:9">
       <c r="A2" s="4">
@@ -5520,11 +5563,11 @@
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1200</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="21"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" ht="20.05" customHeight="1" spans="1:9">
       <c r="A3" s="7">
@@ -5541,11 +5584,11 @@
         <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1192.8462</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="21"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" ht="20.05" customHeight="1" spans="1:9">
       <c r="A4" s="4">
@@ -5562,17 +5605,17 @@
         <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1188.7524</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="21"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:9">
       <c r="A5" s="7">
         <v>44510</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>19808.03</v>
       </c>
       <c r="C5" s="6">
@@ -5583,563 +5626,579 @@
         <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>1188.4818</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="21"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:9">
       <c r="A6" s="7">
         <v>44517</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <f>(VLOOKUP(A6,$A$1:$D103,2,FALSE)*0.015)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f>(VLOOKUP(A6,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:9">
       <c r="A7" s="4">
         <v>44524</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="8">
+        <v>19831.02</v>
+      </c>
+      <c r="C7" s="6">
+        <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.015)</f>
+        <v>297.4653</v>
+      </c>
+      <c r="D7" s="6">
+        <f>(VLOOKUP(A7,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>1189.8612</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:9">
       <c r="A8" s="7">
         <v>44531</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:9">
       <c r="A9" s="7">
         <v>44538</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="21"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:9">
       <c r="A10" s="7">
         <v>44545</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="21"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:9">
       <c r="A11" s="4">
         <v>44552</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:9">
       <c r="A12" s="7">
         <v>44559</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:9">
       <c r="A13" s="7">
         <v>44566</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="21"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:9">
       <c r="A14" s="7">
         <v>44573</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:9">
       <c r="A15" s="4">
         <v>44580</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:9">
       <c r="A16" s="7">
         <v>44587</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:9">
       <c r="A17" s="7">
         <v>44594</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:9">
       <c r="A18" s="7">
         <v>44601</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:9">
       <c r="A19" s="4">
         <v>44608</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:9">
       <c r="A20" s="7">
         <v>44615</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:9">
       <c r="A21" s="7">
         <v>44622</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:9">
       <c r="A22" s="7">
         <v>44629</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="4">
         <v>44636</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="21"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="7">
         <v>44643</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="7">
         <v>44650</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
       <c r="A26" s="7">
         <v>44657</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="4">
         <v>44664</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="21"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
       <c r="A28" s="7">
         <v>44671</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="21"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="7">
         <v>44678</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="21"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
       <c r="A30" s="7">
         <v>44685</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="21"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
       <c r="A31" s="4">
         <v>44692</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="21"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
       <c r="A32" s="7">
         <v>44699</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="21"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
       <c r="A33" s="7">
         <v>44706</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
       <c r="A34" s="7">
         <v>44713</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="21"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
       <c r="A35" s="4">
         <v>44720</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="21"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
       <c r="A36" s="7">
         <v>44727</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="21"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
       <c r="A37" s="7">
         <v>44734</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="21"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="7">
         <v>44741</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="21"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
       <c r="A39" s="4">
         <v>44748</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="21"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="21"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="21"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="17"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="21"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="17"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="21"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="17"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="21"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="17"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="21"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="17"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="21"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="17"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="21"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="17"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="21"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="22"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
